--- a/docs/excel/TMusic.xlsx
+++ b/docs/excel/TMusic.xlsx
@@ -273,6 +273,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -303,6 +304,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -398,9 +400,6 @@
     <t>close_mp3</t>
   </si>
   <si>
-    <t>fapai_mp3</t>
-  </si>
-  <si>
     <t>foldpai_mp3</t>
   </si>
   <si>
@@ -419,9 +418,6 @@
     <t>levelup_mp3</t>
   </si>
   <si>
-    <t>light_card_mp3</t>
-  </si>
-  <si>
     <t>lose_mp3</t>
   </si>
   <si>
@@ -471,6 +467,14 @@
   </si>
   <si>
     <t>TableName: "Music" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fapai1_mp3,fapai2_mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_card1_mp3,light_card2_mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +895,7 @@
   <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +967,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,7 +984,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,7 +1001,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,7 +1018,7 @@
         <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1031,7 +1035,7 @@
         <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,7 +1245,7 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,7 +1259,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,7 +1273,7 @@
         <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,7 +1287,7 @@
         <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,7 +1301,7 @@
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,7 +1329,7 @@
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,7 +1343,7 @@
         <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,7 +1357,7 @@
         <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,7 +1371,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,7 +1385,7 @@
         <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1395,7 +1399,7 @@
         <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,7 +1413,7 @@
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,7 +1427,7 @@
         <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,7 +1441,7 @@
         <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1469,7 @@
         <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1483,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,7 +1497,7 @@
         <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,7 +2773,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TMusic.xlsx
+++ b/docs/excel/TMusic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -475,6 +475,14 @@
   </si>
   <si>
     <t>light_card1_mp3,light_card2_mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ","</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +903,7 @@
   <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,10 +943,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -947,6 +955,12 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
+      <c r="D3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
